--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -318,10 +318,10 @@
     <t>集中</t>
   </si>
   <si>
-    <t>ESkillBuffActionType</t>
-  </si>
-  <si>
-    <t>BUFF操作类型</t>
+    <t>ESkillEffectType</t>
+  </si>
+  <si>
+    <t>效果类型</t>
   </si>
   <si>
     <t>CHANGE_PROPERTY</t>
@@ -1505,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2022,7 +2022,6 @@
       <c r="H34" t="s">
         <v>58</v>
       </c>
-      <c r="I34"/>
       <c r="J34">
         <v>0</v>
       </c>
@@ -2217,15 +2216,12 @@
       <c r="D53" t="b">
         <v>1</v>
       </c>
-      <c r="E53"/>
       <c r="F53" t="s">
         <v>123</v>
       </c>
-      <c r="G53"/>
       <c r="H53" t="s">
         <v>58</v>
       </c>
-      <c r="I53"/>
       <c r="J53">
         <v>0</v>
       </c>
@@ -2306,14 +2302,12 @@
       <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="E61"/>
       <c r="F61" t="s">
         <v>136</v>
       </c>
       <c r="H61" t="s">
         <v>58</v>
       </c>
-      <c r="I61"/>
       <c r="J61">
         <v>0</v>
       </c>
@@ -2436,7 +2430,6 @@
       <c r="D73" t="b">
         <v>1</v>
       </c>
-      <c r="E73"/>
       <c r="F73" t="s">
         <v>156</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
   <si>
     <t>##var</t>
   </si>
@@ -177,7 +177,7 @@
     <t>技能类型</t>
   </si>
   <si>
-    <t>NORMAL</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>普攻</t>
@@ -186,7 +186,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>ACTIVE</t>
+    <t>Active</t>
   </si>
   <si>
     <t>主动</t>
@@ -195,31 +195,22 @@
     <t>主动技能</t>
   </si>
   <si>
-    <t>PASSIVE</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>被动技能</t>
-  </si>
-  <si>
-    <t>WEAPON</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>武器技能</t>
-  </si>
-  <si>
-    <t>MOUNT</t>
-  </si>
-  <si>
-    <t>坐骑</t>
-  </si>
-  <si>
-    <t>坐骑技能</t>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>死亡技能</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>反击技能</t>
   </si>
   <si>
     <t>EConsumeType</t>
@@ -451,9 +442,6 @@
   </si>
   <si>
     <t>COUNTER</t>
-  </si>
-  <si>
-    <t>反击</t>
   </si>
   <si>
     <t>全体</t>
@@ -1505,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1777,23 +1765,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="8:11">
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1802,35 +1776,35 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1839,49 +1813,49 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="8:11">
       <c r="H21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1890,52 +1864,52 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1943,10 +1917,10 @@
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -1954,7 +1928,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1963,52 +1937,52 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="8:11">
       <c r="H31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="8:11">
       <c r="H32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2017,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2028,10 +2002,10 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2039,10 +2013,10 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2050,10 +2024,10 @@
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -2061,7 +2035,7 @@
     </row>
     <row r="38" spans="8:10">
       <c r="H38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
         <v>43</v>
@@ -2072,10 +2046,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -2083,10 +2057,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -2094,10 +2068,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -2105,10 +2079,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J42">
         <v>8</v>
@@ -2116,10 +2090,10 @@
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J43">
         <v>9</v>
@@ -2127,10 +2101,10 @@
     </row>
     <row r="44" spans="8:10">
       <c r="H44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J44">
         <v>10</v>
@@ -2138,10 +2112,10 @@
     </row>
     <row r="45" spans="8:10">
       <c r="H45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J45">
         <v>11</v>
@@ -2149,10 +2123,10 @@
     </row>
     <row r="46" spans="8:10">
       <c r="H46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J46">
         <v>12</v>
@@ -2160,21 +2134,21 @@
     </row>
     <row r="47" spans="8:11">
       <c r="H47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J47">
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2183,13 +2157,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2197,10 +2171,10 @@
     </row>
     <row r="50" spans="8:10">
       <c r="H50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2208,7 +2182,7 @@
     </row>
     <row r="53" customFormat="1" spans="2:10">
       <c r="B53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -2217,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2228,10 +2202,10 @@
     </row>
     <row r="54" customFormat="1" spans="8:10">
       <c r="H54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2239,10 +2213,10 @@
     </row>
     <row r="55" customFormat="1" spans="8:10">
       <c r="H55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -2250,10 +2224,10 @@
     </row>
     <row r="56" customFormat="1" spans="8:10">
       <c r="H56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I56" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -2261,10 +2235,10 @@
     </row>
     <row r="57" customFormat="1" spans="8:10">
       <c r="H57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -2272,10 +2246,10 @@
     </row>
     <row r="58" customFormat="1" spans="8:10">
       <c r="H58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -2283,10 +2257,10 @@
     </row>
     <row r="59" spans="8:10">
       <c r="H59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J59">
         <v>6</v>
@@ -2294,7 +2268,7 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2303,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2314,10 +2288,10 @@
     </row>
     <row r="62" spans="8:10">
       <c r="H62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2325,10 +2299,10 @@
     </row>
     <row r="63" spans="8:10">
       <c r="H63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2336,7 +2310,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2345,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2356,10 +2330,10 @@
     </row>
     <row r="66" spans="8:10">
       <c r="H66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2367,10 +2341,10 @@
     </row>
     <row r="67" spans="8:10">
       <c r="H67" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I67" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -2378,10 +2352,10 @@
     </row>
     <row r="68" spans="8:10">
       <c r="H68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I68" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2389,10 +2363,10 @@
     </row>
     <row r="69" spans="8:10">
       <c r="H69" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -2400,10 +2374,10 @@
     </row>
     <row r="70" spans="8:10">
       <c r="H70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J70">
         <v>16</v>
@@ -2411,10 +2385,10 @@
     </row>
     <row r="71" spans="8:10">
       <c r="H71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I71" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J71">
         <v>32</v>
@@ -2422,7 +2396,7 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -2431,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2442,10 +2416,10 @@
     </row>
     <row r="74" spans="8:10">
       <c r="H74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -2453,10 +2427,10 @@
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J75">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>##var</t>
   </si>
@@ -471,37 +471,40 @@
     <t>实体类型</t>
   </si>
   <si>
-    <t>HERO</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Hero</t>
   </si>
   <si>
     <t>英雄</t>
   </si>
   <si>
-    <t>BUILDING</t>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
   <si>
     <t>建筑</t>
   </si>
   <si>
-    <t>SOLDIER</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>PLANT</t>
-  </si>
-  <si>
-    <t>植物</t>
-  </si>
-  <si>
-    <t>DROP</t>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>Drop</t>
   </si>
   <si>
     <t>掉落</t>
   </si>
   <si>
-    <t>GLOBAL</t>
+    <t>Global</t>
   </si>
   <si>
     <t>全局</t>
@@ -1491,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2322,7 +2325,7 @@
         <v>138</v>
       </c>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="66" spans="8:10">
       <c r="H66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="67" spans="8:10">
       <c r="H67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="68" spans="8:10">
       <c r="H68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2363,10 +2366,10 @@
     </row>
     <row r="69" spans="8:10">
       <c r="H69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -2374,10 +2377,10 @@
     </row>
     <row r="70" spans="8:10">
       <c r="H70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J70">
         <v>16</v>
@@ -2385,54 +2388,54 @@
     </row>
     <row r="71" spans="8:10">
       <c r="H71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J71">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" t="b">
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="b">
         <v>0</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" t="s">
         <v>55</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="8:10">
-      <c r="H74" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" t="s">
-        <v>154</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
+        <v>154</v>
+      </c>
+      <c r="I75" t="s">
         <v>155</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10">
+      <c r="H76" t="s">
         <v>156</v>
       </c>
-      <c r="J75">
+      <c r="I76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76">
         <v>2</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,31 +417,34 @@
     <t>索敌类型</t>
   </si>
   <si>
-    <t>SINGLE_SELF</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SingleSelf</t>
   </si>
   <si>
     <t>自己</t>
   </si>
   <si>
-    <t>SELF</t>
+    <t>Self</t>
   </si>
   <si>
     <t>己方队伍</t>
   </si>
   <si>
-    <t>ENEMY</t>
+    <t>Enemy</t>
   </si>
   <si>
     <t>敌方队伍</t>
   </si>
   <si>
-    <t>NOT_ENEMY</t>
+    <t>NotEnemy</t>
   </si>
   <si>
     <t>非敌队伍</t>
   </si>
   <si>
-    <t>COUNTER</t>
+    <t>All</t>
   </si>
   <si>
     <t>全体</t>
@@ -469,9 +472,6 @@
   </si>
   <si>
     <t>实体类型</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Hero</t>
@@ -538,13 +538,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1032,137 +1037,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1497,7 +1505,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2196,60 +2204,60 @@
       <c r="F53" t="s">
         <v>120</v>
       </c>
-      <c r="H53" t="s">
-        <v>55</v>
+      <c r="H53" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="8:10">
-      <c r="H54" t="s">
-        <v>121</v>
+    <row r="54" customFormat="1" ht="17" spans="8:10">
+      <c r="H54" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="8:10">
-      <c r="H55" t="s">
-        <v>123</v>
+    <row r="55" customFormat="1" ht="17" spans="8:10">
+      <c r="H55" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="8:10">
-      <c r="H56" t="s">
-        <v>125</v>
+    <row r="56" customFormat="1" ht="17" spans="8:10">
+      <c r="H56" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="8:10">
-      <c r="H57" t="s">
-        <v>127</v>
+    <row r="57" customFormat="1" ht="17" spans="8:10">
+      <c r="H57" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="I57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="8:10">
-      <c r="H58" t="s">
-        <v>129</v>
+    <row r="58" customFormat="1" ht="17" spans="8:10">
+      <c r="H58" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="I58" t="s">
         <v>51</v>
@@ -2258,12 +2266,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="8:10">
-      <c r="H59" t="s">
-        <v>62</v>
+    <row r="59" ht="17" spans="8:10">
+      <c r="H59" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J59">
         <v>6</v>
@@ -2271,7 +2279,7 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2280,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -2291,10 +2299,10 @@
     </row>
     <row r="62" spans="8:10">
       <c r="H62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2302,10 +2310,10 @@
     </row>
     <row r="63" spans="8:10">
       <c r="H63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2313,7 +2321,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2322,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H65" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J65">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
   <si>
     <t>##var</t>
   </si>
@@ -243,12 +243,18 @@
     <t>ALL</t>
   </si>
   <si>
+    <t>所有</t>
+  </si>
+  <si>
     <t>满足所有条件</t>
   </si>
   <si>
     <t>ANY</t>
   </si>
   <si>
+    <t>任一</t>
+  </si>
+  <si>
     <t>满足任一条件</t>
   </si>
   <si>
@@ -258,9 +264,6 @@
     <t>BUFF类型</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>BUFF</t>
   </si>
   <si>
@@ -456,13 +459,13 @@
     <t>索敌优先级</t>
   </si>
   <si>
-    <t>MIN_DISTANCE</t>
+    <t>MinDistance</t>
   </si>
   <si>
     <t>最近距离</t>
   </si>
   <si>
-    <t>MAX_DISTANCE</t>
+    <t>MaxDistance</t>
   </si>
   <si>
     <t>最远距离</t>
@@ -1504,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1847,26 +1850,26 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1875,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
         <v>55</v>
@@ -1883,44 +1886,35 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11">
+    </row>
+    <row r="25" spans="8:10">
       <c r="H25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
+    </row>
+    <row r="26" spans="8:10">
       <c r="H26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1928,10 +1922,10 @@
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -1939,7 +1933,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1948,52 +1942,52 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="8:11">
       <c r="H31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="8:11">
       <c r="H32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2002,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
         <v>55</v>
@@ -2013,10 +2007,10 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2024,10 +2018,10 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2035,10 +2029,10 @@
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -2046,7 +2040,7 @@
     </row>
     <row r="38" spans="8:10">
       <c r="H38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
         <v>43</v>
@@ -2057,10 +2051,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -2068,10 +2062,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -2079,10 +2073,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -2090,10 +2084,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J42">
         <v>8</v>
@@ -2101,10 +2095,10 @@
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J43">
         <v>9</v>
@@ -2112,10 +2106,10 @@
     </row>
     <row r="44" spans="8:10">
       <c r="H44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J44">
         <v>10</v>
@@ -2123,10 +2117,10 @@
     </row>
     <row r="45" spans="8:10">
       <c r="H45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J45">
         <v>11</v>
@@ -2134,10 +2128,10 @@
     </row>
     <row r="46" spans="8:10">
       <c r="H46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J46">
         <v>12</v>
@@ -2145,21 +2139,21 @@
     </row>
     <row r="47" spans="8:11">
       <c r="H47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J47">
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2168,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2182,10 +2176,10 @@
     </row>
     <row r="50" spans="8:10">
       <c r="H50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2193,7 +2187,7 @@
     </row>
     <row r="53" customFormat="1" spans="2:10">
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -2202,60 +2196,60 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="17" spans="8:10">
+    <row r="54" customFormat="1" spans="8:10">
       <c r="H54" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="17" spans="8:10">
+    <row r="55" customFormat="1" spans="8:10">
       <c r="H55" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="17" spans="8:10">
+    <row r="56" customFormat="1" spans="8:10">
       <c r="H56" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="17" spans="8:10">
+    <row r="57" customFormat="1" spans="8:10">
       <c r="H57" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="17" spans="8:10">
+    <row r="58" customFormat="1" spans="8:10">
       <c r="H58" s="4" t="s">
         <v>50</v>
       </c>
@@ -2266,12 +2260,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="17" spans="8:10">
+    <row r="59" spans="8:10">
       <c r="H59" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J59">
         <v>6</v>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2288,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2299,10 +2293,10 @@
     </row>
     <row r="62" spans="8:10">
       <c r="H62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2310,10 +2304,10 @@
     </row>
     <row r="63" spans="8:10">
       <c r="H63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2321,7 +2315,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2330,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2341,10 +2335,10 @@
     </row>
     <row r="66" spans="8:10">
       <c r="H66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2352,10 +2346,10 @@
     </row>
     <row r="67" spans="8:10">
       <c r="H67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -2363,10 +2357,10 @@
     </row>
     <row r="68" spans="8:10">
       <c r="H68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2374,10 +2368,10 @@
     </row>
     <row r="69" spans="8:10">
       <c r="H69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -2385,10 +2379,10 @@
     </row>
     <row r="70" spans="8:10">
       <c r="H70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J70">
         <v>16</v>
@@ -2396,10 +2390,10 @@
     </row>
     <row r="71" spans="8:10">
       <c r="H71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J71">
         <v>32</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2416,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
         <v>55</v>
@@ -2427,10 +2421,10 @@
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -2438,10 +2432,10 @@
     </row>
     <row r="76" spans="8:10">
       <c r="H76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J76">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -318,16 +318,16 @@
     <t>效果类型</t>
   </si>
   <si>
-    <t>CHANGE_PROPERTY</t>
+    <t>ChangeProperty</t>
   </si>
   <si>
     <t>属性改变</t>
   </si>
   <si>
-    <t>CHANGE_PROPERTY_DYNAMIC</t>
-  </si>
-  <si>
-    <t>动态属性改变</t>
+    <t>ChangePropertyReal</t>
+  </si>
+  <si>
+    <t>实时属性改变</t>
   </si>
   <si>
     <t>CHANGE_STATE</t>
@@ -1507,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
   <si>
     <t>##var</t>
   </si>
@@ -318,6 +318,9 @@
     <t>效果类型</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>ChangeProperty</t>
   </si>
   <si>
@@ -330,13 +333,19 @@
     <t>实时属性改变</t>
   </si>
   <si>
-    <t>CHANGE_STATE</t>
-  </si>
-  <si>
-    <t>状态改变</t>
-  </si>
-  <si>
-    <t>ATTACK</t>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>攻击力百分比+固定值</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>伤害</t>
   </si>
   <si>
     <t>ADD_BUFF</t>
@@ -418,9 +427,6 @@
   </si>
   <si>
     <t>索敌类型</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>SingleSelf</t>
@@ -1507,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1999,7 +2005,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2007,10 +2013,10 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2018,43 +2024,49 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="8:10">
+    <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="8:10">
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
       <c r="H38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J38">
         <v>4</v>
       </c>
+      <c r="K38" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -2062,10 +2074,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -2073,10 +2085,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -2084,10 +2096,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J42">
         <v>8</v>
@@ -2095,10 +2107,10 @@
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J43">
         <v>9</v>
@@ -2106,10 +2118,10 @@
     </row>
     <row r="44" spans="8:10">
       <c r="H44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J44">
         <v>10</v>
@@ -2117,10 +2129,10 @@
     </row>
     <row r="45" spans="8:10">
       <c r="H45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J45">
         <v>11</v>
@@ -2128,10 +2140,10 @@
     </row>
     <row r="46" spans="8:10">
       <c r="H46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J46">
         <v>12</v>
@@ -2139,21 +2151,21 @@
     </row>
     <row r="47" spans="8:11">
       <c r="H47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J47">
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2162,13 +2174,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2176,10 +2188,10 @@
     </row>
     <row r="50" spans="8:10">
       <c r="H50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2187,7 +2199,7 @@
     </row>
     <row r="53" customFormat="1" spans="2:10">
       <c r="B53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -2196,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2207,10 +2219,10 @@
     </row>
     <row r="54" customFormat="1" spans="8:10">
       <c r="H54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2218,10 +2230,10 @@
     </row>
     <row r="55" customFormat="1" spans="8:10">
       <c r="H55" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I55" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -2229,10 +2241,10 @@
     </row>
     <row r="56" customFormat="1" spans="8:10">
       <c r="H56" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -2240,10 +2252,10 @@
     </row>
     <row r="57" customFormat="1" spans="8:10">
       <c r="H57" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -2262,10 +2274,10 @@
     </row>
     <row r="59" spans="8:10">
       <c r="H59" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J59">
         <v>6</v>
@@ -2273,7 +2285,7 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2282,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2293,10 +2305,10 @@
     </row>
     <row r="62" spans="8:10">
       <c r="H62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2304,10 +2316,10 @@
     </row>
     <row r="63" spans="8:10">
       <c r="H63" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2315,7 +2327,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2324,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H65" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2335,10 +2347,10 @@
     </row>
     <row r="66" spans="8:10">
       <c r="H66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2346,10 +2358,10 @@
     </row>
     <row r="67" spans="8:10">
       <c r="H67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -2357,10 +2369,10 @@
     </row>
     <row r="68" spans="8:10">
       <c r="H68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -2368,10 +2380,10 @@
     </row>
     <row r="69" spans="8:10">
       <c r="H69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -2379,10 +2391,10 @@
     </row>
     <row r="70" spans="8:10">
       <c r="H70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J70">
         <v>16</v>
@@ -2390,10 +2402,10 @@
     </row>
     <row r="71" spans="8:10">
       <c r="H71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J71">
         <v>32</v>
@@ -2401,7 +2413,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2410,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H74" t="s">
         <v>55</v>
@@ -2421,10 +2433,10 @@
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I75" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -2432,10 +2444,10 @@
     </row>
     <row r="76" spans="8:10">
       <c r="H76" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I76" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J76">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="24460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1513,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24460"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="163">
   <si>
     <t>##var</t>
   </si>
@@ -519,22 +519,28 @@
     <t>全局</t>
   </si>
   <si>
-    <t>ESkillTrackTowardType</t>
+    <t>ETrackTowardType</t>
   </si>
   <si>
     <t>朝向类型</t>
   </si>
   <si>
-    <t>DIRECTION</t>
+    <t>Direction</t>
   </si>
   <si>
     <t>固定朝向</t>
   </si>
   <si>
-    <t>POSITION</t>
+    <t>Position</t>
   </si>
   <si>
     <t>固定位置</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>跟随目标</t>
   </si>
 </sst>
 </file>
@@ -1511,10 +1517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="$A37:$XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2425,7 +2431,7 @@
         <v>156</v>
       </c>
       <c r="H74" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2451,6 +2457,17 @@
       </c>
       <c r="J76">
         <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10">
+      <c r="H77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" t="s">
+        <v>162</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -219,13 +219,13 @@
     <t>技能消耗类型</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>None</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>PROPERTY</t>
+    <t>Property</t>
   </si>
   <si>
     <t>属性</t>
@@ -240,7 +240,7 @@
     <t>条件组完成类型</t>
   </si>
   <si>
-    <t>ALL</t>
+    <t>All</t>
   </si>
   <si>
     <t>所有</t>
@@ -249,7 +249,7 @@
     <t>满足所有条件</t>
   </si>
   <si>
-    <t>ANY</t>
+    <t>Any</t>
   </si>
   <si>
     <t>任一</t>
@@ -264,25 +264,25 @@
     <t>BUFF类型</t>
   </si>
   <si>
-    <t>BUFF</t>
+    <t>Buff</t>
   </si>
   <si>
     <t>增益</t>
   </si>
   <si>
-    <t>DEBUFF</t>
+    <t>Debuff</t>
   </si>
   <si>
     <t>减益</t>
   </si>
   <si>
-    <t>CONTROL</t>
+    <t>Control</t>
   </si>
   <si>
     <t>控制</t>
   </si>
   <si>
-    <t>SLOW</t>
+    <t>Slow</t>
   </si>
   <si>
     <t>减速</t>
@@ -294,19 +294,19 @@
     <t>BUFF叠加类型</t>
   </si>
   <si>
-    <t>UNIQUE</t>
+    <t>Unique</t>
   </si>
   <si>
     <t>唯一</t>
   </si>
   <si>
-    <t>DISPERSIVE</t>
+    <t>Dispersive</t>
   </si>
   <si>
     <t>分散</t>
   </si>
   <si>
-    <t>CONCENTRATED</t>
+    <t>Concentrated</t>
   </si>
   <si>
     <t>集中</t>
@@ -318,9 +318,6 @@
     <t>效果类型</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>ChangeProperty</t>
   </si>
   <si>
@@ -348,63 +345,48 @@
     <t>伤害</t>
   </si>
   <si>
-    <t>ADD_BUFF</t>
+    <t>AddBuff</t>
   </si>
   <si>
     <t>添加Buff</t>
   </si>
   <si>
-    <t>ADD_BULLET</t>
+    <t>AddBullet</t>
   </si>
   <si>
     <t>添加子弹</t>
   </si>
   <si>
-    <t>ADD_RESTRICT</t>
+    <t>AddRestrict</t>
   </si>
   <si>
     <t>添加限制</t>
   </si>
   <si>
-    <t>ADD_SEED</t>
-  </si>
-  <si>
-    <t>随机生成种子</t>
-  </si>
-  <si>
-    <t>REMOVE_BUFF</t>
+    <t>RemoveBuff</t>
   </si>
   <si>
     <t>移除Buff</t>
   </si>
   <si>
-    <t>SUMMON_SOLDIER</t>
+    <t>SummonSoldier</t>
   </si>
   <si>
     <t>召唤士兵</t>
   </si>
   <si>
-    <t>GEN_DROP</t>
+    <t>GenDrop</t>
   </si>
   <si>
     <t>生产掉落</t>
   </si>
   <si>
-    <t>RESEARCH</t>
+    <t>Research</t>
   </si>
   <si>
     <t>重新索敌</t>
   </si>
   <si>
-    <t>RANDOM_GEN_DROP</t>
-  </si>
-  <si>
-    <t>随机生产掉落</t>
-  </si>
-  <si>
-    <t>掉落ID，掉落数量，[中心点坐标,size]</t>
-  </si>
-  <si>
     <t>EBindPointType</t>
   </si>
   <si>
@@ -451,9 +433,6 @@
   </si>
   <si>
     <t>非敌队伍</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>全体</t>
@@ -1517,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2011,7 +1990,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2019,10 +1998,10 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
         <v>89</v>
-      </c>
-      <c r="I35" t="s">
-        <v>90</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2030,10 +2009,10 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
         <v>91</v>
-      </c>
-      <c r="I36" t="s">
-        <v>92</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2041,38 +2020,38 @@
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
         <v>93</v>
-      </c>
-      <c r="I37" t="s">
-        <v>94</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="8:11">
       <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" t="s">
         <v>96</v>
-      </c>
-      <c r="I38" t="s">
-        <v>97</v>
       </c>
       <c r="J38">
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
         <v>98</v>
-      </c>
-      <c r="I39" t="s">
-        <v>99</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -2080,10 +2059,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
         <v>100</v>
-      </c>
-      <c r="I40" t="s">
-        <v>101</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -2091,10 +2070,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
         <v>102</v>
-      </c>
-      <c r="I41" t="s">
-        <v>103</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -2102,371 +2081,346 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
         <v>104</v>
       </c>
-      <c r="I42" t="s">
-        <v>105</v>
-      </c>
       <c r="J42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" t="s">
         <v>106</v>
       </c>
-      <c r="I43" t="s">
-        <v>107</v>
-      </c>
       <c r="J43">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="8:10">
       <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" t="s">
         <v>108</v>
       </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
       <c r="J44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="8:10">
       <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
         <v>110</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="J45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10">
-      <c r="H46" t="s">
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>112</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H47" t="s">
         <v>113</v>
       </c>
-      <c r="J46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11">
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>114</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10">
+      <c r="H48" t="s">
         <v>115</v>
       </c>
-      <c r="J47">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="I48" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" t="s">
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:10">
+      <c r="B51" t="s">
         <v>117</v>
       </c>
-      <c r="C49" t="b">
+      <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>118</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="8:10">
+      <c r="H52" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I52" t="s">
         <v>120</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="8:10">
-      <c r="H50" t="s">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="8:10">
+      <c r="H53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I53" t="s">
         <v>122</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:10">
-      <c r="B53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="J53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="8:10">
       <c r="H54" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="8:10">
       <c r="H55" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="8:10">
       <c r="H56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>129</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="H60" t="s">
         <v>130</v>
       </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="8:10">
-      <c r="H57" s="4" t="s">
+      <c r="I60" t="s">
         <v>131</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10">
+      <c r="H61" t="s">
         <v>132</v>
       </c>
-      <c r="J57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="8:10">
-      <c r="H58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="8:10">
-      <c r="H59" s="4" t="s">
+      <c r="I61" t="s">
         <v>133</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
         <v>134</v>
       </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" t="s">
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>135</v>
       </c>
-      <c r="C61" t="b">
+      <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63">
         <v>0</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
+    </row>
+    <row r="64" spans="8:10">
+      <c r="H64" t="s">
         <v>136</v>
       </c>
-      <c r="H61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62" t="s">
+      <c r="I64" t="s">
         <v>137</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10">
+      <c r="H65" t="s">
         <v>138</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="8:10">
-      <c r="H63" t="s">
+      <c r="I65" t="s">
         <v>139</v>
       </c>
-      <c r="I63" t="s">
-        <v>140</v>
-      </c>
-      <c r="J63">
+      <c r="J65">
         <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" t="s">
-        <v>88</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="8:10">
       <c r="H66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="8:10">
       <c r="H67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="8:10">
       <c r="H68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="8:10">
       <c r="H69" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
         <v>149</v>
       </c>
-      <c r="I69" t="s">
+      <c r="H72" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10">
+      <c r="H73" t="s">
         <v>150</v>
       </c>
-      <c r="J69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="8:10">
-      <c r="H70" t="s">
+      <c r="I73" t="s">
         <v>151</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10">
+      <c r="H74" t="s">
         <v>152</v>
       </c>
-      <c r="J70">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="8:10">
-      <c r="H71" t="s">
+      <c r="I74" t="s">
         <v>153</v>
       </c>
-      <c r="I71" t="s">
-        <v>154</v>
-      </c>
-      <c r="J71">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
       <c r="J74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="8:10">
-      <c r="H76" t="s">
-        <v>159</v>
-      </c>
-      <c r="I76" t="s">
-        <v>160</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="8:10">
-      <c r="H77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I77" t="s">
-        <v>162</v>
-      </c>
-      <c r="J77">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,10 @@
     <t>召唤士兵</t>
   </si>
   <si>
-    <t>GenDrop</t>
-  </si>
-  <si>
-    <t>生产掉落</t>
+    <t>SummonRandom</t>
+  </si>
+  <si>
+    <t>随机召唤</t>
   </si>
   <si>
     <t>Research</t>
@@ -1498,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
   <si>
     <t>##var</t>
   </si>
@@ -468,28 +468,34 @@
     <t>英雄</t>
   </si>
   <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>地块</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
     <t>Soldier</t>
   </si>
   <si>
     <t>士兵</t>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>建筑</t>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>掉落</t>
   </si>
   <si>
     <t>Bullet</t>
   </si>
   <si>
     <t>子弹</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>掉落</t>
   </si>
   <si>
     <t>Global</t>
@@ -1496,10 +1502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2371,35 +2377,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" t="s">
+    <row r="70" spans="8:10">
+      <c r="H70" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="b">
+      <c r="I70" t="s">
+        <v>149</v>
+      </c>
+      <c r="J70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="b">
         <v>0</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
         <v>55</v>
       </c>
-      <c r="J72">
+      <c r="J73">
         <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:10">
-      <c r="H73" t="s">
-        <v>150</v>
-      </c>
-      <c r="I73" t="s">
-        <v>151</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="8:10">
@@ -2410,7 +2416,7 @@
         <v>153</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="8:10">
@@ -2421,6 +2427,17 @@
         <v>155</v>
       </c>
       <c r="J75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10">
+      <c r="H76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1504,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
   <si>
     <t>##var</t>
   </si>
@@ -420,7 +420,13 @@
     <t>Self</t>
   </si>
   <si>
-    <t>己方队伍</t>
+    <t>友方含自己</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>友方不含自己</t>
   </si>
   <si>
     <t>Enemy</t>
@@ -1502,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2229,55 +2235,55 @@
     </row>
     <row r="56" customFormat="1" spans="8:10">
       <c r="H56" s="4" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="8:10">
+    <row r="57" customFormat="1" spans="8:10">
       <c r="H57" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="J57">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" t="b">
+    <row r="58" spans="8:10">
+      <c r="H58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" t="s">
         <v>55</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="8:10">
-      <c r="H60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" t="s">
-        <v>131</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="8:10">
@@ -2288,38 +2294,38 @@
         <v>133</v>
       </c>
       <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H63" t="s">
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" t="s">
         <v>55</v>
       </c>
-      <c r="J63">
+      <c r="J64">
         <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10">
-      <c r="H64" t="s">
-        <v>136</v>
-      </c>
-      <c r="I64" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="8:10">
@@ -2330,7 +2336,7 @@
         <v>139</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="8:10">
@@ -2341,7 +2347,7 @@
         <v>141</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="8:10">
@@ -2352,7 +2358,7 @@
         <v>143</v>
       </c>
       <c r="J67">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="8:10">
@@ -2363,7 +2369,7 @@
         <v>145</v>
       </c>
       <c r="J68">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="8:10">
@@ -2374,7 +2380,7 @@
         <v>147</v>
       </c>
       <c r="J69">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="8:10">
@@ -2385,38 +2391,38 @@
         <v>149</v>
       </c>
       <c r="J70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10">
+      <c r="H71" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="b">
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="b">
         <v>0</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" t="s">
         <v>55</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="8:10">
-      <c r="H74" t="s">
-        <v>152</v>
-      </c>
-      <c r="I74" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="8:10">
@@ -2427,7 +2433,7 @@
         <v>155</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="8:10">
@@ -2438,6 +2444,17 @@
         <v>157</v>
       </c>
       <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10">
+      <c r="H77" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" t="s">
+        <v>159</v>
+      </c>
+      <c r="J77">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="166">
   <si>
     <t>##var</t>
   </si>
@@ -318,12 +318,6 @@
     <t>效果类型</t>
   </si>
   <si>
-    <t>ChangeProperty</t>
-  </si>
-  <si>
-    <t>属性改变</t>
-  </si>
-  <si>
     <t>ChangePropertyReal</t>
   </si>
   <si>
@@ -351,10 +345,10 @@
     <t>添加Buff</t>
   </si>
   <si>
-    <t>AddBullet</t>
-  </si>
-  <si>
-    <t>添加子弹</t>
+    <t>RemoveBuff</t>
+  </si>
+  <si>
+    <t>移除Buff</t>
   </si>
   <si>
     <t>AddRestrict</t>
@@ -363,10 +357,22 @@
     <t>添加限制</t>
   </si>
   <si>
-    <t>RemoveBuff</t>
-  </si>
-  <si>
-    <t>移除Buff</t>
+    <t>RemoveRestrict</t>
+  </si>
+  <si>
+    <t>移除限制</t>
+  </si>
+  <si>
+    <t>AddProperty</t>
+  </si>
+  <si>
+    <t>增加属性</t>
+  </si>
+  <si>
+    <t>SubProperty</t>
+  </si>
+  <si>
+    <t>降低属性</t>
   </si>
   <si>
     <t>SummonSoldier</t>
@@ -379,6 +385,18 @@
   </si>
   <si>
     <t>随机召唤</t>
+  </si>
+  <si>
+    <t>AddBulletTarget</t>
+  </si>
+  <si>
+    <t>目标子弹</t>
+  </si>
+  <si>
+    <t>AddBulletPosition</t>
+  </si>
+  <si>
+    <t>位置子弹</t>
   </si>
   <si>
     <t>Research</t>
@@ -1508,10 +1526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2016,10 +2034,10 @@
         <v>89</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
       <c r="H36" t="s">
         <v>90</v>
       </c>
@@ -2027,24 +2045,27 @@
         <v>91</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
         <v>92</v>
       </c>
-      <c r="I37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11">
+    </row>
+    <row r="38" spans="8:10">
       <c r="H38" t="s">
         <v>95</v>
       </c>
@@ -2052,13 +2073,10 @@
         <v>96</v>
       </c>
       <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="8:10">
       <c r="H39" t="s">
         <v>97</v>
       </c>
@@ -2066,7 +2084,7 @@
         <v>98</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="8:10">
@@ -2077,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="8:10">
@@ -2088,7 +2106,7 @@
         <v>102</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="8:10">
@@ -2135,19 +2153,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" t="s">
+    <row r="46" spans="8:10">
+      <c r="H46" t="s">
         <v>111</v>
       </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="I46" t="s">
         <v>112</v>
       </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
       <c r="H47" t="s">
         <v>113</v>
       </c>
@@ -2155,7 +2172,7 @@
         <v>114</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="8:10">
@@ -2166,60 +2183,61 @@
         <v>116</v>
       </c>
       <c r="J48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" customFormat="1" spans="2:10">
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="b">
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="D51" t="b">
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
-      <c r="H51" s="4" t="s">
+    </row>
+    <row r="54" customFormat="1" spans="2:10">
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J51">
+      <c r="J54">
         <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="8:10">
-      <c r="H52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I52" t="s">
-        <v>120</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="8:10">
-      <c r="H53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I53" t="s">
-        <v>122</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="8:10">
-      <c r="H54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54">
-        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="8:10">
@@ -2230,7 +2248,7 @@
         <v>126</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="8:10">
@@ -2241,124 +2259,124 @@
         <v>128</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="8:10">
       <c r="H57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="8:10">
+      <c r="H58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="8:10">
+      <c r="H59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="8:10">
+      <c r="H60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I60" t="s">
         <v>51</v>
       </c>
-      <c r="J57">
+      <c r="J60">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="8:10">
-      <c r="H58" s="4" t="s">
+    <row r="61" spans="8:10">
+      <c r="H61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J58">
+      <c r="I61" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" t="b">
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="b">
         <v>0</v>
       </c>
-      <c r="D60" t="b">
+      <c r="D63" t="b">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="F63" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" t="s">
         <v>55</v>
       </c>
-      <c r="J60">
+      <c r="J63">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="8:10">
-      <c r="H61" t="s">
-        <v>132</v>
-      </c>
-      <c r="I61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J61">
+    <row r="64" spans="8:10">
+      <c r="H64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" t="s">
+        <v>139</v>
+      </c>
+      <c r="J64">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" t="s">
-        <v>135</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>137</v>
-      </c>
-      <c r="H64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="8:10">
       <c r="H65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="8:10">
-      <c r="H66" t="s">
-        <v>140</v>
-      </c>
-      <c r="I66" t="s">
-        <v>141</v>
-      </c>
-      <c r="J66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10">
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
+      </c>
       <c r="H67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="J67">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="8:10">
@@ -2369,7 +2387,7 @@
         <v>145</v>
       </c>
       <c r="J68">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="8:10">
@@ -2380,7 +2398,7 @@
         <v>147</v>
       </c>
       <c r="J69">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="8:10">
@@ -2391,7 +2409,7 @@
         <v>149</v>
       </c>
       <c r="J70">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="8:10">
@@ -2402,59 +2420,92 @@
         <v>151</v>
       </c>
       <c r="J71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10">
+      <c r="H72" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10">
+      <c r="H73" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" t="s">
+        <v>155</v>
+      </c>
+      <c r="J73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10">
+      <c r="H74" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" t="s">
+        <v>157</v>
+      </c>
+      <c r="J74">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="b">
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="D74" t="b">
+      <c r="D77" t="b">
         <v>1</v>
       </c>
-      <c r="F74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="F77" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" t="s">
         <v>55</v>
       </c>
-      <c r="J74">
+      <c r="J77">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="8:10">
-      <c r="H75" t="s">
-        <v>154</v>
-      </c>
-      <c r="I75" t="s">
-        <v>155</v>
-      </c>
-      <c r="J75">
+    <row r="78" spans="8:10">
+      <c r="H78" t="s">
+        <v>160</v>
+      </c>
+      <c r="I78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J78">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:10">
-      <c r="H76" t="s">
-        <v>156</v>
-      </c>
-      <c r="I76" t="s">
-        <v>157</v>
-      </c>
-      <c r="J76">
+    <row r="79" spans="8:10">
+      <c r="H79" t="s">
+        <v>162</v>
+      </c>
+      <c r="I79" t="s">
+        <v>163</v>
+      </c>
+      <c r="J79">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="8:10">
-      <c r="H77" t="s">
-        <v>158</v>
-      </c>
-      <c r="I77" t="s">
-        <v>159</v>
-      </c>
-      <c r="J77">
+    <row r="80" spans="8:10">
+      <c r="H80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
   <si>
     <t>##var</t>
   </si>
@@ -462,6 +462,18 @@
     <t>全体</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>队伍</t>
+  </si>
+  <si>
     <t>ESearchTargetPriority</t>
   </si>
   <si>
@@ -520,12 +532,6 @@
   </si>
   <si>
     <t>子弹</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>全局</t>
   </si>
   <si>
     <t>ETrackTowardType</t>
@@ -1526,10 +1532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2317,88 +2323,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
+    <row r="62" spans="8:10">
+      <c r="H62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C63" t="b">
+      <c r="I62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10">
+      <c r="H63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="b">
         <v>0</v>
       </c>
-      <c r="D63" t="b">
+      <c r="D65" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" t="s">
         <v>55</v>
       </c>
-      <c r="J63">
+      <c r="J65">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="8:10">
-      <c r="H64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I64" t="s">
-        <v>139</v>
-      </c>
-      <c r="J64">
+    <row r="66" spans="8:10">
+      <c r="H66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="8:10">
-      <c r="H65" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J65">
+    <row r="67" spans="8:10">
+      <c r="H67" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" t="b">
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="b">
+      <c r="D69" t="b">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" t="s">
         <v>55</v>
       </c>
-      <c r="J67">
+      <c r="J69">
         <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="8:10">
-      <c r="H68" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" t="s">
-        <v>145</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="8:10">
-      <c r="H69" t="s">
-        <v>146</v>
-      </c>
-      <c r="I69" t="s">
-        <v>147</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="8:10">
@@ -2409,7 +2415,7 @@
         <v>149</v>
       </c>
       <c r="J70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="8:10">
@@ -2420,7 +2426,7 @@
         <v>151</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="8:10">
@@ -2431,7 +2437,7 @@
         <v>153</v>
       </c>
       <c r="J72">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="8:10">
@@ -2442,7 +2448,7 @@
         <v>155</v>
       </c>
       <c r="J73">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="8:10">
@@ -2453,59 +2459,92 @@
         <v>157</v>
       </c>
       <c r="J74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10">
+      <c r="H75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" t="s">
+        <v>159</v>
+      </c>
+      <c r="J75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10">
+      <c r="H76" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="b">
+    <row r="77" spans="8:10">
+      <c r="H77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I77" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="b">
         <v>0</v>
       </c>
-      <c r="D77" t="b">
+      <c r="D79" t="b">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
-        <v>159</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79" t="s">
         <v>55</v>
       </c>
-      <c r="J77">
+      <c r="J79">
         <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="8:10">
-      <c r="H78" t="s">
-        <v>160</v>
-      </c>
-      <c r="I78" t="s">
-        <v>161</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="8:10">
-      <c r="H79" t="s">
-        <v>162</v>
-      </c>
-      <c r="I79" t="s">
-        <v>163</v>
-      </c>
-      <c r="J79">
-        <v>2</v>
       </c>
     </row>
     <row r="80" spans="8:10">
       <c r="H80" t="s">
+        <v>162</v>
+      </c>
+      <c r="I80" t="s">
+        <v>163</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10">
+      <c r="H81" t="s">
         <v>164</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I81" t="s">
         <v>165</v>
       </c>
-      <c r="J80">
+      <c r="J81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10">
+      <c r="H82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" t="s">
+        <v>167</v>
+      </c>
+      <c r="J82">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="172">
   <si>
     <t>##var</t>
   </si>
@@ -468,70 +468,82 @@
     <t>全局</t>
   </si>
   <si>
+    <t>FriendTeam</t>
+  </si>
+  <si>
+    <t>友方全局</t>
+  </si>
+  <si>
+    <t>EnemyTeam</t>
+  </si>
+  <si>
+    <t>敌方全局</t>
+  </si>
+  <si>
+    <t>ESearchTargetPriority</t>
+  </si>
+  <si>
+    <t>索敌优先级</t>
+  </si>
+  <si>
+    <t>MinDistance</t>
+  </si>
+  <si>
+    <t>最近距离</t>
+  </si>
+  <si>
+    <t>MaxDistance</t>
+  </si>
+  <si>
+    <t>最远距离</t>
+  </si>
+  <si>
+    <t>EUnitType</t>
+  </si>
+  <si>
+    <t>实体类型</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>地块</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>掉落</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
     <t>队伍</t>
-  </si>
-  <si>
-    <t>ESearchTargetPriority</t>
-  </si>
-  <si>
-    <t>索敌优先级</t>
-  </si>
-  <si>
-    <t>MinDistance</t>
-  </si>
-  <si>
-    <t>最近距离</t>
-  </si>
-  <si>
-    <t>MaxDistance</t>
-  </si>
-  <si>
-    <t>最远距离</t>
-  </si>
-  <si>
-    <t>EUnitType</t>
-  </si>
-  <si>
-    <t>实体类型</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>地块</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>Soldier</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>掉落</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>子弹</t>
   </si>
   <si>
     <t>ETrackTowardType</t>
@@ -1532,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:I63"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2345,35 +2357,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
+    <row r="64" spans="8:10">
+      <c r="H64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C65" t="b">
+      <c r="I64" t="s">
+        <v>141</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="b">
         <v>0</v>
       </c>
-      <c r="D65" t="b">
+      <c r="D66" t="b">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" t="s">
         <v>55</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10">
-      <c r="H66" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="8:10">
@@ -2384,38 +2396,38 @@
         <v>145</v>
       </c>
       <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10">
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" t="b">
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="b">
         <v>1</v>
       </c>
-      <c r="D69" t="b">
+      <c r="D70" t="b">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
-        <v>147</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" t="s">
         <v>55</v>
       </c>
-      <c r="J69">
+      <c r="J70">
         <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="8:10">
-      <c r="H70" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" t="s">
-        <v>149</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="8:10">
@@ -2426,7 +2438,7 @@
         <v>151</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="8:10">
@@ -2437,7 +2449,7 @@
         <v>153</v>
       </c>
       <c r="J72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="8:10">
@@ -2448,7 +2460,7 @@
         <v>155</v>
       </c>
       <c r="J73">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="8:10">
@@ -2459,7 +2471,7 @@
         <v>157</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="8:10">
@@ -2470,81 +2482,92 @@
         <v>159</v>
       </c>
       <c r="J75">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="8:10">
       <c r="H76" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="J76">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="8:10">
       <c r="H77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J77">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10">
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J78">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="b">
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="b">
         <v>0</v>
       </c>
-      <c r="D79" t="b">
+      <c r="D80" t="b">
         <v>1</v>
       </c>
-      <c r="F79" t="s">
-        <v>161</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="F80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" t="s">
         <v>55</v>
       </c>
-      <c r="J79">
+      <c r="J80">
         <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="8:10">
-      <c r="H80" t="s">
-        <v>162</v>
-      </c>
-      <c r="I80" t="s">
-        <v>163</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="8:10">
       <c r="H81" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="8:10">
       <c r="H82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10">
+      <c r="H83" t="s">
+        <v>170</v>
+      </c>
+      <c r="I83" t="s">
+        <v>171</v>
+      </c>
+      <c r="J83">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
   <si>
     <t>##var</t>
   </si>
@@ -177,6 +177,12 @@
     <t>技能类型</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无类型</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -219,9 +225,6 @@
     <t>技能消耗类型</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -232,6 +235,15 @@
   </si>
   <si>
     <t>消耗属性</t>
+  </si>
+  <si>
+    <t>TeamProperty</t>
+  </si>
+  <si>
+    <t>队伍属性</t>
+  </si>
+  <si>
+    <t>消耗队伍属性</t>
   </si>
   <si>
     <t>EGroupCompletedType</t>
@@ -1544,10 +1556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1766,186 +1778,189 @@
       <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>42</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
         <v>48</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="J14">
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="b">
+      <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17">
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
         <v>58</v>
       </c>
-      <c r="J18">
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" t="s">
+      <c r="K19" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="b">
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="b">
+      <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20">
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21">
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22">
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="b">
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24">
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10">
-      <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="H26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="8:10">
@@ -1956,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="8:10">
@@ -1967,22 +1982,21 @@
         <v>77</v>
       </c>
       <c r="J28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I29" t="s">
         <v>79</v>
       </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
       <c r="H30" t="s">
         <v>80</v>
       </c>
@@ -1990,27 +2004,22 @@
         <v>81</v>
       </c>
       <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>83</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
       <c r="H32" t="s">
         <v>84</v>
       </c>
@@ -2018,83 +2027,86 @@
         <v>85</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
+    <row r="33" spans="8:11">
+      <c r="H33" t="s">
         <v>86</v>
       </c>
-      <c r="C34" t="b">
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="b">
+      <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34">
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="8:10">
-      <c r="H35" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35">
+    <row r="37" spans="8:10">
+      <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:11">
-      <c r="H36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36">
+    <row r="38" spans="8:11">
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38">
         <v>3</v>
       </c>
-      <c r="K36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11">
-      <c r="H37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" t="s">
-        <v>94</v>
-      </c>
-      <c r="J37">
-        <v>4</v>
-      </c>
-      <c r="K37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10">
-      <c r="H38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>96</v>
       </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="8:10">
+    </row>
+    <row r="39" spans="8:11">
       <c r="H39" t="s">
         <v>97</v>
       </c>
@@ -2102,7 +2114,10 @@
         <v>98</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="K39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="8:10">
@@ -2113,10 +2128,10 @@
         <v>100</v>
       </c>
       <c r="J40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="8:10">
       <c r="H41" t="s">
         <v>101</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>102</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="8:10">
@@ -2135,7 +2150,7 @@
         <v>104</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="8:10">
@@ -2146,7 +2161,7 @@
         <v>106</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="8:10">
@@ -2157,7 +2172,7 @@
         <v>108</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="8:10">
@@ -2168,7 +2183,7 @@
         <v>110</v>
       </c>
       <c r="J45">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="8:10">
@@ -2179,7 +2194,7 @@
         <v>112</v>
       </c>
       <c r="J46">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="8:10">
@@ -2190,7 +2205,7 @@
         <v>114</v>
       </c>
       <c r="J47">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="8:10">
@@ -2201,22 +2216,21 @@
         <v>116</v>
       </c>
       <c r="J48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="I49" t="s">
         <v>118</v>
       </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
       <c r="H50" t="s">
         <v>119</v>
       </c>
@@ -2224,60 +2238,61 @@
         <v>120</v>
       </c>
       <c r="J50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="8:10">
-      <c r="H51" t="s">
-        <v>121</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>122</v>
       </c>
-      <c r="J51">
+      <c r="H52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="2:10">
-      <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" t="b">
+    <row r="56" customFormat="1" spans="2:10">
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="D54" t="b">
+      <c r="D56" t="b">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54">
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56">
         <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="8:10">
-      <c r="H55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="8:10">
-      <c r="H56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56">
-        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="8:10">
@@ -2288,7 +2303,7 @@
         <v>130</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="8:10">
@@ -2299,7 +2314,7 @@
         <v>132</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="8:10">
@@ -2310,51 +2325,51 @@
         <v>134</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="8:10">
       <c r="H60" s="4" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="J60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="8:10">
+      <c r="H61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="8:10">
+      <c r="H62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62">
         <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10">
-      <c r="H61" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
-      </c>
-      <c r="J62">
-        <v>8</v>
       </c>
     </row>
     <row r="63" spans="8:10">
       <c r="H63" s="4" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="I63" t="s">
         <v>139</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="8:10">
@@ -2365,91 +2380,91 @@
         <v>141</v>
       </c>
       <c r="J64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10">
+      <c r="H65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I65" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10">
+      <c r="H66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="b">
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="b">
         <v>0</v>
       </c>
-      <c r="D66" t="b">
+      <c r="D68" t="b">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" t="s">
-        <v>55</v>
-      </c>
-      <c r="J66">
+      <c r="F68" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="8:10">
-      <c r="H67" t="s">
-        <v>144</v>
-      </c>
-      <c r="I67" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67">
+    <row r="69" spans="8:10">
+      <c r="H69" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="8:10">
-      <c r="H68" t="s">
-        <v>146</v>
-      </c>
-      <c r="I68" t="s">
-        <v>147</v>
-      </c>
-      <c r="J68">
+    <row r="70" spans="8:10">
+      <c r="H70" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" t="s">
+        <v>151</v>
+      </c>
+      <c r="J70">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" t="b">
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="b">
         <v>1</v>
       </c>
-      <c r="D70" t="b">
+      <c r="D72" t="b">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
-        <v>149</v>
-      </c>
-      <c r="H70" t="s">
-        <v>55</v>
-      </c>
-      <c r="J70">
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72">
         <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="8:10">
-      <c r="H71" t="s">
-        <v>150</v>
-      </c>
-      <c r="I71" t="s">
-        <v>151</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="8:10">
-      <c r="H72" t="s">
-        <v>152</v>
-      </c>
-      <c r="I72" t="s">
-        <v>153</v>
-      </c>
-      <c r="J72">
-        <v>2</v>
       </c>
     </row>
     <row r="73" spans="8:10">
@@ -2460,7 +2475,7 @@
         <v>155</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="8:10">
@@ -2471,7 +2486,7 @@
         <v>157</v>
       </c>
       <c r="J74">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="8:10">
@@ -2482,7 +2497,7 @@
         <v>159</v>
       </c>
       <c r="J75">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="8:10">
@@ -2493,71 +2508,71 @@
         <v>161</v>
       </c>
       <c r="J76">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="8:10">
       <c r="H77" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="J77">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="8:10">
       <c r="H78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10">
+      <c r="H79" t="s">
+        <v>140</v>
+      </c>
+      <c r="I79" t="s">
+        <v>141</v>
+      </c>
+      <c r="J79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10">
+      <c r="H80" t="s">
+        <v>166</v>
+      </c>
+      <c r="I80" t="s">
+        <v>167</v>
+      </c>
+      <c r="J80">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" t="b">
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="D80" t="b">
+      <c r="D82" t="b">
         <v>1</v>
       </c>
-      <c r="F80" t="s">
-        <v>165</v>
-      </c>
-      <c r="H80" t="s">
-        <v>55</v>
-      </c>
-      <c r="J80">
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" t="s">
+        <v>41</v>
+      </c>
+      <c r="J82">
         <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="8:10">
-      <c r="H81" t="s">
-        <v>166</v>
-      </c>
-      <c r="I81" t="s">
-        <v>167</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="8:10">
-      <c r="H82" t="s">
-        <v>168</v>
-      </c>
-      <c r="I82" t="s">
-        <v>169</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="8:10">
@@ -2568,6 +2583,28 @@
         <v>171</v>
       </c>
       <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10">
+      <c r="H84" t="s">
+        <v>172</v>
+      </c>
+      <c r="I84" t="s">
+        <v>173</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10">
+      <c r="H85" t="s">
+        <v>174</v>
+      </c>
+      <c r="I85" t="s">
+        <v>175</v>
+      </c>
+      <c r="J85">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="178">
   <si>
     <t>##var</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>最远距离</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>随机</t>
   </si>
   <si>
     <t>EUnitType</t>
@@ -1556,10 +1562,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2447,35 +2453,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" t="s">
+    <row r="71" spans="8:10">
+      <c r="H71" t="s">
         <v>152</v>
       </c>
-      <c r="C72" t="b">
+      <c r="I71" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="b">
         <v>1</v>
       </c>
-      <c r="D72" t="b">
+      <c r="D73" t="b">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="F73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
         <v>41</v>
       </c>
-      <c r="J72">
+      <c r="J73">
         <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:10">
-      <c r="H73" t="s">
-        <v>154</v>
-      </c>
-      <c r="I73" t="s">
-        <v>155</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="8:10">
@@ -2486,7 +2492,7 @@
         <v>157</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="8:10">
@@ -2497,7 +2503,7 @@
         <v>159</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="8:10">
@@ -2508,7 +2514,7 @@
         <v>161</v>
       </c>
       <c r="J76">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="8:10">
@@ -2519,7 +2525,7 @@
         <v>163</v>
       </c>
       <c r="J77">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="8:10">
@@ -2530,60 +2536,60 @@
         <v>165</v>
       </c>
       <c r="J78">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="8:10">
       <c r="H79" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="I79" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="J79">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="8:10">
       <c r="H80" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10">
+      <c r="H81" t="s">
+        <v>168</v>
+      </c>
+      <c r="I81" t="s">
+        <v>169</v>
+      </c>
+      <c r="J81">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" t="b">
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="D82" t="b">
+      <c r="D83" t="b">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>169</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="F83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
         <v>41</v>
       </c>
-      <c r="J82">
+      <c r="J83">
         <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="8:10">
-      <c r="H83" t="s">
-        <v>170</v>
-      </c>
-      <c r="I83" t="s">
-        <v>171</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="8:10">
@@ -2594,7 +2600,7 @@
         <v>173</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="8:10">
@@ -2605,6 +2611,17 @@
         <v>175</v>
       </c>
       <c r="J85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10">
+      <c r="H86" t="s">
+        <v>176</v>
+      </c>
+      <c r="I86" t="s">
+        <v>177</v>
+      </c>
+      <c r="J86">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="162">
   <si>
     <t>##var</t>
   </si>
@@ -514,54 +514,6 @@
   </si>
   <si>
     <t>随机</t>
-  </si>
-  <si>
-    <t>EUnitType</t>
-  </si>
-  <si>
-    <t>实体类型</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>地块</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>Soldier</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>掉落</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>队伍</t>
   </si>
   <si>
     <t>ETrackTowardType</t>
@@ -1562,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2464,164 +2416,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
         <v>154</v>
       </c>
-      <c r="C73" t="b">
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>155</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>41</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="8:10">
-      <c r="H74" t="s">
-        <v>156</v>
-      </c>
-      <c r="I74" t="s">
-        <v>157</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="8:10">
       <c r="H75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="8:10">
       <c r="H76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="8:10">
       <c r="H77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="8:10">
-      <c r="H78" t="s">
-        <v>164</v>
-      </c>
-      <c r="I78" t="s">
-        <v>165</v>
-      </c>
-      <c r="J78">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="8:10">
-      <c r="H79" t="s">
-        <v>166</v>
-      </c>
-      <c r="I79" t="s">
-        <v>167</v>
-      </c>
-      <c r="J79">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="8:10">
-      <c r="H80" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" t="s">
-        <v>141</v>
-      </c>
-      <c r="J80">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="8:10">
-      <c r="H81" t="s">
-        <v>168</v>
-      </c>
-      <c r="I81" t="s">
-        <v>169</v>
-      </c>
-      <c r="J81">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H83" t="s">
-        <v>41</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="8:10">
-      <c r="H84" t="s">
-        <v>172</v>
-      </c>
-      <c r="I84" t="s">
-        <v>173</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="8:10">
-      <c r="H85" t="s">
-        <v>174</v>
-      </c>
-      <c r="I85" t="s">
-        <v>175</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="8:10">
-      <c r="H86" t="s">
-        <v>176</v>
-      </c>
-      <c r="I86" t="s">
-        <v>177</v>
-      </c>
-      <c r="J86">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -415,24 +415,6 @@
   </si>
   <si>
     <t>重新索敌</t>
-  </si>
-  <si>
-    <t>EBindPointType</t>
-  </si>
-  <si>
-    <t>资源挂点类型</t>
-  </si>
-  <si>
-    <t>ATTACH</t>
-  </si>
-  <si>
-    <t>受击点</t>
-  </si>
-  <si>
-    <t>HEAD</t>
-  </si>
-  <si>
-    <t>头部</t>
   </si>
   <si>
     <t>ESearchTargetTeam</t>
@@ -1514,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2199,58 +2181,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" t="s">
+    <row r="53" customFormat="1" spans="2:10">
+      <c r="B53" t="s">
         <v>121</v>
       </c>
-      <c r="C52" t="b">
+      <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="D52" t="b">
+      <c r="D53" t="b">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>122</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="8:10">
+      <c r="H54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I54" t="s">
         <v>124</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="8:10">
-      <c r="H53" t="s">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="8:10">
+      <c r="H55" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I55" t="s">
         <v>126</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="2:10">
-      <c r="B56" t="s">
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="8:10">
+      <c r="H56" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>128</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="8:10">
@@ -2261,7 +2242,7 @@
         <v>130</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="8:10">
@@ -2272,200 +2253,167 @@
         <v>132</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="8:10">
       <c r="H59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="H60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" t="s">
         <v>133</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10">
+      <c r="H61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="8:10">
-      <c r="H60" s="4" t="s">
+      <c r="I61" t="s">
         <v>135</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="8:10">
-      <c r="H61" s="4" t="s">
+      <c r="I62" t="s">
         <v>137</v>
       </c>
-      <c r="I61" t="s">
-        <v>138</v>
-      </c>
-      <c r="J61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="8:10">
-      <c r="H62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" t="s">
-        <v>53</v>
-      </c>
       <c r="J62">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="8:10">
       <c r="H63" s="4" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="I63" t="s">
         <v>139</v>
       </c>
       <c r="J63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10">
-      <c r="H64" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
         <v>140</v>
       </c>
-      <c r="I64" t="s">
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>141</v>
       </c>
-      <c r="J64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10">
-      <c r="H65" s="4" t="s">
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10">
+      <c r="H66" t="s">
         <v>142</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>143</v>
       </c>
-      <c r="J65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10">
-      <c r="H66" s="4" t="s">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10">
+      <c r="H67" t="s">
         <v>144</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>145</v>
       </c>
-      <c r="J66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" t="s">
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10">
+      <c r="H68" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="b">
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="b">
         <v>0</v>
       </c>
-      <c r="D68" t="b">
+      <c r="D71" t="b">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
-        <v>147</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="F71" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" t="s">
         <v>41</v>
       </c>
-      <c r="J68">
+      <c r="J71">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="8:10">
-      <c r="H69" t="s">
-        <v>148</v>
-      </c>
-      <c r="I69" t="s">
-        <v>149</v>
-      </c>
-      <c r="J69">
+    <row r="72" spans="8:10">
+      <c r="H72" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="8:10">
-      <c r="H70" t="s">
-        <v>150</v>
-      </c>
-      <c r="I70" t="s">
-        <v>151</v>
-      </c>
-      <c r="J70">
+    <row r="73" spans="8:10">
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="8:10">
-      <c r="H71" t="s">
-        <v>152</v>
-      </c>
-      <c r="I71" t="s">
-        <v>153</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
+    <row r="74" spans="8:10">
+      <c r="H74" t="s">
         <v>154</v>
       </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>155</v>
       </c>
-      <c r="H74" t="s">
-        <v>41</v>
-      </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="8:10">
-      <c r="H75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I75" t="s">
-        <v>157</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="8:10">
-      <c r="H76" t="s">
-        <v>158</v>
-      </c>
-      <c r="I76" t="s">
-        <v>159</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="8:10">
-      <c r="H77" t="s">
-        <v>160</v>
-      </c>
-      <c r="I77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J77">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -322,99 +322,6 @@
   </si>
   <si>
     <t>集中</t>
-  </si>
-  <si>
-    <t>ESkillEffectType</t>
-  </si>
-  <si>
-    <t>效果类型</t>
-  </si>
-  <si>
-    <t>ChangePropertyReal</t>
-  </si>
-  <si>
-    <t>实时属性改变</t>
-  </si>
-  <si>
-    <t>Healing</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>攻击力百分比+固定值</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>AddBuff</t>
-  </si>
-  <si>
-    <t>添加Buff</t>
-  </si>
-  <si>
-    <t>RemoveBuff</t>
-  </si>
-  <si>
-    <t>移除Buff</t>
-  </si>
-  <si>
-    <t>AddRestrict</t>
-  </si>
-  <si>
-    <t>添加限制</t>
-  </si>
-  <si>
-    <t>RemoveRestrict</t>
-  </si>
-  <si>
-    <t>移除限制</t>
-  </si>
-  <si>
-    <t>AddProperty</t>
-  </si>
-  <si>
-    <t>增加属性</t>
-  </si>
-  <si>
-    <t>SubProperty</t>
-  </si>
-  <si>
-    <t>降低属性</t>
-  </si>
-  <si>
-    <t>SummonSoldier</t>
-  </si>
-  <si>
-    <t>召唤士兵</t>
-  </si>
-  <si>
-    <t>SummonRandom</t>
-  </si>
-  <si>
-    <t>随机召唤</t>
-  </si>
-  <si>
-    <t>AddBulletTarget</t>
-  </si>
-  <si>
-    <t>目标子弹</t>
-  </si>
-  <si>
-    <t>AddBulletPosition</t>
-  </si>
-  <si>
-    <t>位置子弹</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>重新索敌</t>
   </si>
   <si>
     <t>ESearchTargetTeam</t>
@@ -1496,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2001,419 +1908,239 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
+    <row r="37" customFormat="1" spans="2:10">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="D36" t="b">
+      <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>91</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:10">
-      <c r="H37" t="s">
+    <row r="38" customFormat="1" spans="8:10">
+      <c r="H38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>93</v>
       </c>
-      <c r="J37">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="8:10">
+      <c r="H39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="8:11">
-      <c r="H38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38">
+    <row r="40" customFormat="1" spans="8:10">
+      <c r="H40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40">
         <v>3</v>
       </c>
-      <c r="K38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11">
-      <c r="H39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" t="s">
+    </row>
+    <row r="41" customFormat="1" spans="8:10">
+      <c r="H41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J39">
+      <c r="I41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="K39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10">
-      <c r="H40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="42" customFormat="1" spans="8:10">
+      <c r="H42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J40">
+      <c r="I42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="8:10">
-      <c r="H41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" t="s">
+    <row r="43" customFormat="1" spans="8:10">
+      <c r="H43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
         <v>102</v>
       </c>
-      <c r="J41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10">
-      <c r="H42" t="s">
+      <c r="J44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I45" t="s">
         <v>104</v>
       </c>
-      <c r="J42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10">
-      <c r="H43" t="s">
+      <c r="J45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10">
+      <c r="H46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I46" t="s">
         <v>106</v>
       </c>
-      <c r="J43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10">
-      <c r="H44" t="s">
+      <c r="J46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I47" t="s">
         <v>108</v>
       </c>
-      <c r="J44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10">
-      <c r="H45" t="s">
+      <c r="J47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="I45" t="s">
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>110</v>
       </c>
-      <c r="J45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10">
-      <c r="H46" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10">
-      <c r="H47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" t="s">
-        <v>114</v>
-      </c>
-      <c r="J47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="8:10">
-      <c r="H48" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10">
       <c r="H49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="8:10">
       <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10">
+      <c r="H56" t="s">
         <v>119</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I56" t="s">
         <v>120</v>
       </c>
-      <c r="J50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:10">
-      <c r="B53" t="s">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="I57" t="s">
         <v>122</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="8:10">
-      <c r="H54" s="4" t="s">
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58" t="s">
         <v>123</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I58" t="s">
         <v>124</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="8:10">
-      <c r="H55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="8:10">
-      <c r="H56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="8:10">
-      <c r="H57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="8:10">
-      <c r="H58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I58" t="s">
-        <v>132</v>
-      </c>
       <c r="J58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="8:10">
-      <c r="H59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="8:10">
-      <c r="H60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" t="s">
-        <v>133</v>
-      </c>
-      <c r="J60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10">
-      <c r="H61" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="8:10">
-      <c r="H62" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
-      </c>
-      <c r="J62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="8:10">
-      <c r="H63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" t="s">
-        <v>139</v>
-      </c>
-      <c r="J63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10">
-      <c r="H66" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10">
-      <c r="H67" t="s">
-        <v>144</v>
-      </c>
-      <c r="I67" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="8:10">
-      <c r="H68" t="s">
-        <v>146</v>
-      </c>
-      <c r="I68" t="s">
-        <v>147</v>
-      </c>
-      <c r="J68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" t="s">
-        <v>41</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="8:10">
-      <c r="H72" t="s">
-        <v>150</v>
-      </c>
-      <c r="I72" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="8:10">
-      <c r="H73" t="s">
-        <v>152</v>
-      </c>
-      <c r="I73" t="s">
-        <v>153</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="8:10">
-      <c r="H74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I74" t="s">
-        <v>155</v>
-      </c>
-      <c r="J74">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18700"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -324,63 +324,6 @@
     <t>集中</t>
   </si>
   <si>
-    <t>ESearchTargetTeam</t>
-  </si>
-  <si>
-    <t>索敌类型</t>
-  </si>
-  <si>
-    <t>SingleSelf</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>友方含自己</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>友方不含自己</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>敌方队伍</t>
-  </si>
-  <si>
-    <t>NotEnemy</t>
-  </si>
-  <si>
-    <t>非敌队伍</t>
-  </si>
-  <si>
-    <t>全体</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>全局</t>
-  </si>
-  <si>
-    <t>FriendTeam</t>
-  </si>
-  <si>
-    <t>友方全局</t>
-  </si>
-  <si>
-    <t>EnemyTeam</t>
-  </si>
-  <si>
-    <t>敌方全局</t>
-  </si>
-  <si>
     <t>ESearchTargetPriority</t>
   </si>
   <si>
@@ -439,18 +382,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Avenir Book"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -938,137 +876,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,9 +1018,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1908,7 +1843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="2:10">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -1921,15 +1856,15 @@
       <c r="F37" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" t="s">
         <v>41</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="8:10">
-      <c r="H38" s="4" t="s">
+    <row r="38" spans="8:10">
+      <c r="H38" t="s">
         <v>92</v>
       </c>
       <c r="I38" t="s">
@@ -1939,8 +1874,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="8:10">
-      <c r="H39" s="4" t="s">
+    <row r="39" spans="8:10">
+      <c r="H39" t="s">
         <v>94</v>
       </c>
       <c r="I39" t="s">
@@ -1950,8 +1885,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="8:10">
-      <c r="H40" s="4" t="s">
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
         <v>96</v>
       </c>
       <c r="I40" t="s">
@@ -1961,186 +1896,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="8:10">
-      <c r="H41" s="4" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="I41" t="s">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>99</v>
       </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="8:10">
-      <c r="H42" s="4" t="s">
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" t="s">
         <v>100</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>101</v>
       </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="8:10">
-      <c r="H43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10">
-      <c r="H44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" t="s">
         <v>102</v>
       </c>
-      <c r="J44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10">
-      <c r="H45" s="4" t="s">
+      <c r="I45" t="s">
         <v>103</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10">
+      <c r="H46" t="s">
         <v>104</v>
       </c>
-      <c r="J45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10">
-      <c r="H46" s="4" t="s">
+      <c r="I46" t="s">
         <v>105</v>
       </c>
-      <c r="I46" t="s">
-        <v>106</v>
-      </c>
       <c r="J46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10">
-      <c r="H47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="8:10">
-      <c r="H50" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" t="s">
-        <v>112</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="8:10">
-      <c r="H51" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="8:10">
-      <c r="H52" t="s">
-        <v>115</v>
-      </c>
-      <c r="I52" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10">
-      <c r="H56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" t="s">
-        <v>120</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="8:10">
-      <c r="H57" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" t="s">
-        <v>122</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10">
-      <c r="H58" t="s">
-        <v>123</v>
-      </c>
-      <c r="I58" t="s">
-        <v>124</v>
-      </c>
-      <c r="J58">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>反击技能</t>
+  </si>
+  <si>
+    <t>CountDown</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CD技能</t>
   </si>
   <si>
     <t>EConsumeType</t>
@@ -1338,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1623,38 +1632,38 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" t="s">
+    <row r="16" spans="8:11">
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="b">
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>60</v>
@@ -1668,47 +1677,47 @@
         <v>62</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" t="s">
+    <row r="21" spans="8:11">
+      <c r="H21" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="b">
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="b">
+      <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
         <v>41</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="8:11">
@@ -1719,233 +1728,247 @@
         <v>70</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" t="s">
+    <row r="25" spans="8:11">
+      <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="b">
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="b">
+      <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
         <v>41</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10">
-      <c r="H27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="8:10">
       <c r="H29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="8:10">
       <c r="H30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10">
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="b">
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="b">
+      <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32">
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11">
-      <c r="H33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="8:11">
       <c r="H34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="K34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="b">
+      <c r="K35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="b">
+      <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
         <v>41</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10">
-      <c r="H38" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" t="b">
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="b">
+      <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" t="s">
         <v>41</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10">
-      <c r="H44" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="8:10">
       <c r="H45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="8:10">
       <c r="H46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47">
         <v>3</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -369,6 +369,9 @@
     <t>固定朝向</t>
   </si>
   <si>
+    <t>固定朝向 用飞行距离模拟碰撞</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -379,6 +382,15 @@
   </si>
   <si>
     <t>跟随目标</t>
+  </si>
+  <si>
+    <t>Direction2</t>
+  </si>
+  <si>
+    <t>固定朝向2</t>
+  </si>
+  <si>
+    <t>固定朝向 实时碰撞检测</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1361,7 +1373,7 @@
     <col min="6" max="6" width="16.8125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="18.7857142857143" customWidth="1"/>
-    <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
+    <col min="9" max="9" width="18.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="37.2142857142857" customWidth="1"/>
     <col min="12" max="12" width="14.4285714285714" customWidth="1"/>
@@ -1939,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:10">
+    <row r="45" spans="8:11">
       <c r="H45" t="s">
         <v>103</v>
       </c>
@@ -1949,13 +1961,16 @@
       <c r="J45">
         <v>1</v>
       </c>
+      <c r="K45" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="46" spans="8:10">
       <c r="H46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -1963,13 +1978,27 @@
     </row>
     <row r="47" spans="8:10">
       <c r="H47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J47">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11">
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>##var</t>
   </si>
@@ -192,40 +192,49 @@
     <t>普通攻击</t>
   </si>
   <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>手动技能</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>死亡技能</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>反击技能</t>
+  </si>
+  <si>
+    <t>CountDown</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CD技能</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>主动技能</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>死亡</t>
-  </si>
-  <si>
-    <t>死亡技能</t>
-  </si>
-  <si>
-    <t>Counter</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
-    <t>反击技能</t>
-  </si>
-  <si>
-    <t>CountDown</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CD技能</t>
+    <t>激活</t>
+  </si>
+  <si>
+    <t>激活技能</t>
   </si>
   <si>
     <t>EConsumeType</t>
@@ -1359,10 +1368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="H17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1658,38 +1667,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" t="s">
+    <row r="17" spans="8:11">
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="b">
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="b">
+      <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>41</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>63</v>
@@ -1703,47 +1712,47 @@
         <v>65</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
+    <row r="22" spans="8:11">
+      <c r="H22" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="b">
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
+      <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="8:11">
@@ -1754,218 +1763,218 @@
         <v>73</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
+    <row r="26" spans="8:11">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="b">
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="b">
+      <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
         <v>41</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:10">
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="8:10">
       <c r="H29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="8:10">
       <c r="H30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="8:10">
       <c r="H31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="b">
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="b">
+      <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33">
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
         <v>0</v>
       </c>
-      <c r="K33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11">
-      <c r="H34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
       <c r="K34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="8:11">
       <c r="H35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="b">
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="D38" t="b">
+      <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
         <v>41</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10">
-      <c r="H39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10">
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="b">
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="b">
+      <c r="D45" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:11">
-      <c r="H45" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" t="s">
-        <v>104</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10">
+    <row r="46" spans="8:11">
       <c r="H46" t="s">
         <v>106</v>
       </c>
@@ -1973,32 +1982,46 @@
         <v>107</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="8:10">
       <c r="H47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10">
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="8:11">
-      <c r="H48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" t="s">
-        <v>111</v>
-      </c>
-      <c r="J48">
+    <row r="49" spans="8:11">
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49">
         <v>4</v>
       </c>
-      <c r="K48" t="s">
-        <v>112</v>
+      <c r="K49" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -228,13 +228,13 @@
     <t>CD技能</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>激活</t>
-  </si>
-  <si>
-    <t>激活技能</t>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>放置</t>
+  </si>
+  <si>
+    <t>放置技能</t>
   </si>
   <si>
     <t>EConsumeType</t>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="H17:K17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
